--- a/biology/Zoologie/Dysideidae/Dysideidae.xlsx
+++ b/biology/Zoologie/Dysideidae/Dysideidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dysideidae forment une famille d'animaux de l'embranchement des éponges[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dysideidae forment une famille d'animaux de l'embranchement des éponges.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysideidae vient du grec dus (« mal fait ») et idea (« aspect extérieur, apparence »)[3]. Ces éponges possèdent des contours irréguliers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysideidae vient du grec dus (« mal fait ») et idea (« aspect extérieur, apparence »). Ces éponges possèdent des contours irréguliers.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016) :
 genre Citronia Cook &amp; Bergquist, 2002
 genre Dysidea Johnston, 1842
 genre Euryspongia Row, 1911
